--- a/pred_ohlcv/54_21/2020-01-24 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 IPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1115466.935493672</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1112374.18582497</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1112374.18582497</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1060208.08832497</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>984476.7969249703</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>986588.9732249704</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1442600.981723723</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1467756.725960831</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1467756.725960831</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1533260.507238315</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1571167.645951853</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1537162.340051853</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1456018.165628347</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1441506.15330572</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1433661.923105719</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1411712.413405719</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1402942.837505719</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1402942.837505719</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1353348.078005719</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1346393.804305719</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1436067.12000572</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1436075.12000572</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1421083.79910572</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>1362188.076105719</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>1394362.661905719</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1402850.907705719</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1402850.907705719</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1399612.395505719</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1407244.767205719</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1414752.216309471</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1414752.216309471</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1548292.607109471</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1548292.607109471</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1548292.607109471</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1543879.505409471</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1548447.445209471</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1569970.856609471</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1716727.900309471</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1766886.547609471</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1766886.547609471</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1759998.921109471</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1769137.023509471</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1747758.739309471</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1734082.744309471</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1706209.114009471</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1649739.279409471</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1616052.118409471</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1616052.118409471</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1644756.837909471</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>1642273.503509471</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>1637033.653009471</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>1652620.290241214</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1692824.368109471</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1688153.434009471</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>1692356.047509471</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1695071.827109471</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1691964.708609471</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1695092.052609471</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1674931.735309471</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1693104.923509471</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1682163.991109471</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1680056.652209471</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1728215.562409471</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1721682.065009471</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1722844.071309471</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1721414.164909471</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1715777.625209471</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1716485.404809471</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1704719.877542726</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1753902.93037598</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1768149.277564259</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1764150.069764259</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1759907.510364259</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1768286.407764259</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1752855.463864258</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1764544.796864259</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1739833.58094961</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1751767.36054961</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1768501.843446683</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1734494.350043756</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1730954.722843756</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1733817.977843756</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1755097.163343756</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1793594.072443756</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1806320.428588354</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1842200.216943756</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1878396.690943755</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1865037.747099156</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1966815.903238093</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1878940.693538093</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1908530.799438093</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1866090.244238093</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1861805.426038092</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1876598.301538093</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1881995.685338093</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1887296.684638093</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1833522.863538092</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1795156.297338092</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1781948.404538092</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1783656.420638092</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1783656.420638092</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1768918.780738092</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1729459.160438092</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1651273.650538092</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>1555071.901238092</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>106823.7290714357</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>108923.0678714357</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>110361.7609714357</v>
       </c>
       <c r="H1055">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>103155.1998714357</v>
       </c>
       <c r="H1056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>88670.15097143567</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>88670.15097143567</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>91469.26947143566</v>
       </c>
       <c r="H1059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>87298.78187143567</v>
       </c>
       <c r="H1060">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>75389.00227143567</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>41186.67067143568</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>1756.844571435679</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-21822.95662856432</v>
       </c>
       <c r="H1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>12013.65637143568</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29304,7 +29304,7 @@
         <v>-56752.55172856432</v>
       </c>
       <c r="H1112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1113" spans="1:8">
@@ -29330,7 +29330,7 @@
         <v>-54653.21282856432</v>
       </c>
       <c r="H1113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1114" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-84222.89337127129</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-126069.0432712713</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-126768.8228712713</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-128892.2846712713</v>
       </c>
       <c r="H1188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-128892.2846712713</v>
       </c>
       <c r="H1189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-128892.2846712713</v>
       </c>
       <c r="H1192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-130664.7859990673</v>
       </c>
       <c r="H1200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-137050.6840990673</v>
       </c>
       <c r="H1201">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-132858.6162990673</v>
       </c>
       <c r="H1202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-128403.0219990673</v>
       </c>
       <c r="H1203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-128403.0219990673</v>
       </c>
       <c r="H1204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-128403.0219990673</v>
       </c>
       <c r="H1205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-129102.8015990673</v>
       </c>
       <c r="H1206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-129102.8015990673</v>
       </c>
       <c r="H1207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-129102.8015990673</v>
       </c>
       <c r="H1208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-130502.3607990673</v>
       </c>
       <c r="H1209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-130502.3607990673</v>
       </c>
       <c r="H1210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-133322.3629990673</v>
       </c>
       <c r="H1211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-136140.9798990673</v>
       </c>
       <c r="H1212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-131865.6628990673</v>
       </c>
       <c r="H1213">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-131865.6628990673</v>
       </c>
       <c r="H1214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-131865.6628990673</v>
       </c>
       <c r="H1215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-129749.9334990673</v>
       </c>
       <c r="H1216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-134022.7995990673</v>
       </c>
       <c r="H1217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-131204.7321990673</v>
       </c>
       <c r="H1218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-135454.1355990673</v>
       </c>
       <c r="H1219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32788,7 +32788,7 @@
         <v>-74604.00999906729</v>
       </c>
       <c r="H1246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1247" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-73252.78159906728</v>
       </c>
       <c r="H1249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-84478.19219906729</v>
       </c>
       <c r="H1250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-131388.2408990673</v>
       </c>
       <c r="H1260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33178,7 +33178,7 @@
         <v>-135622.9800990673</v>
       </c>
       <c r="H1261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:8">
@@ -33204,7 +33204,7 @@
         <v>-135622.9800990673</v>
       </c>
       <c r="H1262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-132789.3244990673</v>
       </c>
       <c r="H1263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-136988.0022990673</v>
       </c>
       <c r="H1266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-137719.0305990673</v>
       </c>
       <c r="H1269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-133332.7629990673</v>
       </c>
       <c r="H1270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-134032.5425990674</v>
       </c>
       <c r="H1271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-117896.7283990674</v>
       </c>
       <c r="H1272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
@@ -33490,7 +33490,7 @@
         <v>-105034.4001990674</v>
       </c>
       <c r="H1273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:8">
@@ -33516,7 +33516,7 @@
         <v>-79358.33959906736</v>
       </c>
       <c r="H1274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:8">
@@ -33646,7 +33646,7 @@
         <v>-65571.10419906737</v>
       </c>
       <c r="H1279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>-119265.9588806734</v>
       </c>
       <c r="H1305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>-113498.4220806734</v>
       </c>
       <c r="H1306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>-115680.9293806733</v>
       </c>
       <c r="H1307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>-102969.0914990673</v>
       </c>
       <c r="H1308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>-80329.31189906734</v>
       </c>
       <c r="H1309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -35336,7 +35336,7 @@
         <v>-67702.40341786834</v>
       </c>
       <c r="H1344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345" spans="1:8">
@@ -35362,7 +35362,7 @@
         <v>-83045.88201786834</v>
       </c>
       <c r="H1345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346" spans="1:8">
@@ -35388,7 +35388,7 @@
         <v>-86225.85371786833</v>
       </c>
       <c r="H1346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347" spans="1:8">
@@ -35414,7 +35414,7 @@
         <v>-87825.63331786833</v>
       </c>
       <c r="H1347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1348" spans="1:8">
@@ -35440,7 +35440,7 @@
         <v>-85726.29441786832</v>
       </c>
       <c r="H1348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="1:8">
@@ -35466,7 +35466,7 @@
         <v>-89225.19251786833</v>
       </c>
       <c r="H1349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1350" spans="1:8">
@@ -35492,7 +35492,7 @@
         <v>-91324.53131786833</v>
       </c>
       <c r="H1350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1351" spans="1:8">
@@ -35518,7 +35518,7 @@
         <v>-89196.71921786833</v>
       </c>
       <c r="H1351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1352" spans="1:8">
@@ -35544,7 +35544,7 @@
         <v>-88316.93961786834</v>
       </c>
       <c r="H1352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1353" spans="1:8">
@@ -35570,7 +35570,7 @@
         <v>-100321.7470178683</v>
       </c>
       <c r="H1353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1354" spans="1:8">
@@ -35596,7 +35596,7 @@
         <v>-97449.32341786835</v>
       </c>
       <c r="H1354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1355" spans="1:8">
@@ -35622,7 +35622,7 @@
         <v>-100780.0556178683</v>
       </c>
       <c r="H1355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-24 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 IPX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1115466.935493672</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1112374.18582497</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1112374.18582497</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1060208.08832497</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>984476.7969249703</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>986588.9732249704</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>1471134.308609131</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>1404795.998509131</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>1460967.677409131</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>1449161.200409131</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>1480187.627609131</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>1442600.981723723</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>1467756.725960831</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>1467756.725960831</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>1533260.507238315</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>1571167.645951853</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>1537162.340051853</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>1456018.165628347</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>1441506.15330572</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>1433661.923105719</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>1411712.413405719</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>1402942.837505719</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>1402942.837505719</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>1353348.078005719</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>1346393.804305719</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>1248799.31810572</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>1436067.12000572</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>1436075.12000572</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>1421083.79910572</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>1415299.09170572</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>1378717.40510572</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>1393445.24050572</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>1392037.68120572</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>1392037.68120572</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>1336469.54440572</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1414752.216309471</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1548292.607109471</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1548292.607109471</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1548292.607109471</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1543879.505409471</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1548447.445209471</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>1569970.856609471</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1716727.900309471</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1766886.547609471</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1766886.547609471</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1759998.921109471</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1769137.023509471</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1747758.739309471</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1734082.744309471</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>1706209.114009471</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>1649739.279409471</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>1616052.118409471</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>1616052.118409471</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>1644756.837909471</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>1692824.368109471</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>1688153.434009471</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>1692356.047509471</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>1695071.827109471</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>1691964.708609471</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>1695092.052609471</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>1674931.735309471</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>1693104.923509471</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>1682163.991109471</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>1680056.652209471</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>1728215.562409471</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>1721682.065009471</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>1722844.071309471</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>1721414.164909471</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>1715777.625209471</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>1716485.404809471</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>1704719.877542726</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>1753902.93037598</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>1768149.277564259</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>1764150.069764259</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>1759907.510364259</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>1768286.407764259</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>1752855.463864258</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>1764544.796864259</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>1739833.58094961</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>1751767.36054961</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>1768501.843446683</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>1734494.350043756</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>1730954.722843756</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>1733817.977843756</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>1755097.163343756</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>1793594.072443756</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>1806320.428588354</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>1842200.216943756</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>1878396.690943755</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>1865037.747099156</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>1966815.903238093</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>1878940.693538093</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>1908530.799438093</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>1866090.244238093</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>1861805.426038092</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>1876598.301538093</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>1881995.685338093</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>1887296.684638093</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>1833522.863538092</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>1795156.297338092</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>1781948.404538092</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>1783656.420638092</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>1783656.420638092</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>1768918.780738092</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>1729459.160438092</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>1651273.650538092</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>1784367.651466871</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>1809450.58037897</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>1809450.58037897</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>1742813.681999326</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>1773034.728099326</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>1699135.954499326</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>1595105.817299326</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>1554209.142999326</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>1807851.651599326</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>1731135.484479638</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>1701572.545179638</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>1735340.767379638</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>1694215.068979638</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>1575932.331779638</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>1540305.223779638</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>1362332.855933842</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>1411221.972833842</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>1400767.424207977</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>1326568.800207977</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>1336139.984307977</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>1345970.766721065</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>1383171.396321065</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>1371664.692821065</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>1409744.520574911</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>1395917.169774911</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-13751.74292856432</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>325.7793714356776</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>4704.387371435678</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>24729.59267143568</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-84222.89337127129</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-73003.28897127129</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-73003.28897127129</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-75102.62777127129</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-118571.8790712713</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-126344.8658712713</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-126069.0432712713</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-125369.2636712713</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-126768.8228712713</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-128892.2846712713</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-128892.2846712713</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-128892.2846712713</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-127165.8878990673</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-130664.7859990673</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-137050.6840990673</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-132858.6162990673</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-128403.0219990673</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>-128403.0219990673</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>-128403.0219990673</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>-129102.8015990673</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>-129102.8015990673</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>-129102.8015990673</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>-130502.3607990673</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>-130502.3607990673</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-133322.3629990673</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-136140.9798990673</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-131865.6628990673</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-131865.6628990673</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>-131865.6628990673</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-129749.9334990673</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-134022.7995990673</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-131204.7321990673</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-135454.1355990673</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32814,7 +32814,7 @@
         <v>-74604.00999906729</v>
       </c>
       <c r="H1247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1248" spans="1:8">
@@ -32840,7 +32840,7 @@
         <v>-76088.51629906728</v>
       </c>
       <c r="H1248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:8">
@@ -32866,7 +32866,7 @@
         <v>-73252.78159906728</v>
       </c>
       <c r="H1249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1250" spans="1:8">
@@ -32892,7 +32892,7 @@
         <v>-84478.19219906729</v>
       </c>
       <c r="H1250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1251" spans="1:8">
@@ -32970,7 +32970,7 @@
         <v>-85977.83349906729</v>
       </c>
       <c r="H1253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1254" spans="1:8">
@@ -33074,7 +33074,7 @@
         <v>-137029.5119990673</v>
       </c>
       <c r="H1257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1258" spans="1:8">
@@ -33152,7 +33152,7 @@
         <v>-131388.2408990673</v>
       </c>
       <c r="H1260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1261" spans="1:8">
@@ -33230,7 +33230,7 @@
         <v>-132789.3244990673</v>
       </c>
       <c r="H1263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1264" spans="1:8">
@@ -33308,7 +33308,7 @@
         <v>-136988.0022990673</v>
       </c>
       <c r="H1266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1267" spans="1:8">
@@ -33386,7 +33386,7 @@
         <v>-137719.0305990673</v>
       </c>
       <c r="H1269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1270" spans="1:8">
@@ -33412,7 +33412,7 @@
         <v>-133332.7629990673</v>
       </c>
       <c r="H1270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1271" spans="1:8">
@@ -33438,7 +33438,7 @@
         <v>-134032.5425990674</v>
       </c>
       <c r="H1271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1272" spans="1:8">
@@ -33464,7 +33464,7 @@
         <v>-117896.7283990674</v>
       </c>
       <c r="H1272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1273" spans="1:8">
